--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2237601.489827031</v>
+        <v>-2240462.303619322</v>
       </c>
     </row>
     <row r="7">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="D2" t="n">
-        <v>55.70275353480082</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>23.80873877130336</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>76.32724288053535</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.9218040015056</v>
@@ -786,25 +786,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>136.3766853258209</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>181.8402953327539</v>
+        <v>171.6147726764232</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>72.36698404190653</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
         <v>43.9218040015056</v>
@@ -1023,7 +1023,7 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>206.3883524298849</v>
       </c>
       <c r="X6" t="n">
-        <v>86.78365599040279</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>126.0803078879269</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>134.2052191874667</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>168.9353041185021</v>
       </c>
       <c r="H8" t="n">
-        <v>303.0051123819518</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411815005</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177535</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>192.906228014147</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4381829241309</v>
       </c>
       <c r="H9" t="n">
-        <v>16.56503861959198</v>
+        <v>93.83392671696359</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>23.79630926906584</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858445</v>
+        <v>136.2924232858443</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346715</v>
+        <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
         <v>225.8160311441933</v>
@@ -1272,7 +1272,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>15.19160287037019</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>173.487520802268</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.0251168634279</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>196.1788263911948</v>
       </c>
       <c r="T10" t="n">
-        <v>19.4385973796427</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.63443603047482</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>147.053668106558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,16 +1613,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174123</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>185.0663491738889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>29.249233057517</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>125.9491534982824</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>14.75529838241474</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>148.8796904206665</v>
+        <v>171.37592878392</v>
       </c>
       <c r="U28" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695517</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560535</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02919805176463</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.184474389244</v>
+        <v>173.1371582055054</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>343.7401745782084</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="C2" t="n">
-        <v>77.36251801103042</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="D2" t="n">
-        <v>21.09711040012049</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="E2" t="n">
-        <v>21.09711040012049</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>21.09711040012049</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4328,52 +4328,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U2" t="n">
-        <v>876.4954877125643</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V2" t="n">
-        <v>876.4954877125643</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W2" t="n">
-        <v>876.4954877125643</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X2" t="n">
-        <v>610.1178311453864</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y2" t="n">
-        <v>343.7401745782084</v>
+        <v>1054.855520006024</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>325.1841858830662</v>
+        <v>142.5607941193538</v>
       </c>
       <c r="C3" t="n">
-        <v>325.1841858830662</v>
+        <v>142.5607941193538</v>
       </c>
       <c r="D3" t="n">
-        <v>325.1841858830662</v>
+        <v>142.5607941193538</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4419,40 +4419,40 @@
         <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>694.2029851278861</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560893</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="U3" t="n">
-        <v>462.9384134849055</v>
+        <v>839.7105578442521</v>
       </c>
       <c r="V3" t="n">
-        <v>462.9384134849055</v>
+        <v>604.5584496125093</v>
       </c>
       <c r="W3" t="n">
-        <v>462.9384134849055</v>
+        <v>350.3210928843077</v>
       </c>
       <c r="X3" t="n">
-        <v>325.1841858830662</v>
+        <v>350.3210928843077</v>
       </c>
       <c r="Y3" t="n">
-        <v>325.1841858830662</v>
+        <v>142.5607941193538</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.5404382850868</v>
+        <v>325.1351228789782</v>
       </c>
       <c r="C4" t="n">
-        <v>461.5404382850868</v>
+        <v>325.1351228789782</v>
       </c>
       <c r="D4" t="n">
-        <v>461.5404382850868</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4504,34 +4504,34 @@
         <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="W4" t="n">
-        <v>871.1784540133439</v>
+        <v>545.9277020225084</v>
       </c>
       <c r="X4" t="n">
-        <v>643.1889031153265</v>
+        <v>545.9277020225084</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.1889031153265</v>
+        <v>325.1351228789782</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.4820441686398</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>114.1043876014619</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>114.1043876014619</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>114.1043876014619</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>107.1588868522584</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>94.19507407881396</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4568,19 +4568,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4607,10 +4607,10 @@
         <v>380.4820441686398</v>
       </c>
       <c r="X5" t="n">
-        <v>380.4820441686398</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.4820441686398</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6220209084487</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="C6" t="n">
-        <v>520.1689916273217</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="D6" t="n">
-        <v>371.2345819660704</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="E6" t="n">
-        <v>211.9971269606149</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="F6" t="n">
-        <v>65.46256898749988</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H6" t="n">
         <v>65.46256898749988</v>
@@ -4671,25 +4671,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846131</v>
+        <v>679.4102545541443</v>
       </c>
       <c r="X6" t="n">
-        <v>694.6220209084487</v>
+        <v>471.5587543486116</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.6220209084487</v>
+        <v>471.5587543486116</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>419.7484680357818</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="C7" t="n">
-        <v>419.7484680357818</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="D7" t="n">
-        <v>419.7484680357818</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="E7" t="n">
-        <v>271.8353744533887</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F7" t="n">
-        <v>271.8353744533887</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>271.8353744533887</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4732,7 +4732,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4753,22 +4753,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640389</v>
+        <v>652.9170359767591</v>
       </c>
       <c r="W7" t="n">
-        <v>829.3864837640389</v>
+        <v>386.5393794095811</v>
       </c>
       <c r="X7" t="n">
-        <v>601.3969328660215</v>
+        <v>386.5393794095811</v>
       </c>
       <c r="Y7" t="n">
-        <v>601.3969328660215</v>
+        <v>386.5393794095811</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1611.6619205121</v>
+        <v>1741.160496658651</v>
       </c>
       <c r="C8" t="n">
-        <v>1611.6619205121</v>
+        <v>1372.19797971824</v>
       </c>
       <c r="D8" t="n">
-        <v>1253.396221905349</v>
+        <v>1013.932281111489</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.396221905349</v>
+        <v>628.1440285132451</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4103171157416</v>
+        <v>217.1581237236375</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797985</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970189</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229159</v>
+        <v>166.4989367229182</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677486</v>
+        <v>397.0601716677531</v>
       </c>
       <c r="L8" t="n">
-        <v>719.993533093756</v>
+        <v>719.9935330937633</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721575</v>
+        <v>1110.988557721585</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999418</v>
+        <v>1512.92409899943</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830553</v>
+        <v>1879.125171830568</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.16831427172</v>
+        <v>2157.168314271737</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.79438825758</v>
+        <v>2317.794388257598</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590861</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259777</v>
+        <v>2325.820119590861</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.656028259777</v>
+        <v>2325.820119590861</v>
       </c>
       <c r="U8" t="n">
-        <v>2001.801252487911</v>
+        <v>2072.223384002222</v>
       </c>
       <c r="V8" t="n">
-        <v>2001.801252487911</v>
+        <v>1741.160496658651</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.801252487911</v>
+        <v>1741.160496658651</v>
       </c>
       <c r="X8" t="n">
-        <v>2001.801252487911</v>
+        <v>1741.160496658651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1611.6619205121</v>
+        <v>1741.160496658651</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692.4082165547777</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>517.9551872736507</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>369.0207776123995</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>209.783322606944</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
-        <v>63.24876463382893</v>
+        <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>63.24876463382893</v>
+        <v>165.3348225797257</v>
       </c>
       <c r="H9" t="n">
-        <v>46.51640239181683</v>
+        <v>70.55307842117665</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977922</v>
+        <v>223.9894559067851</v>
       </c>
       <c r="K9" t="n">
-        <v>267.289305341282</v>
+        <v>510.2734415371324</v>
       </c>
       <c r="L9" t="n">
-        <v>539.683345633696</v>
+        <v>782.6674818295483</v>
       </c>
       <c r="M9" t="n">
-        <v>1041.8966869267</v>
+        <v>1119.895347026214</v>
       </c>
       <c r="N9" t="n">
-        <v>1402.458615178036</v>
+        <v>1480.457275277552</v>
       </c>
       <c r="O9" t="n">
-        <v>1978.09909477677</v>
+        <v>1788.081202938442</v>
       </c>
       <c r="P9" t="n">
-        <v>2205.661351085885</v>
+        <v>2015.643459247559</v>
       </c>
       <c r="Q9" t="n">
-        <v>2307.861496570695</v>
+        <v>2325.820119590861</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590841</v>
+        <v>2325.820119590861</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160696</v>
+        <v>2188.151005160715</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661028</v>
+        <v>1993.721818661047</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505277</v>
+        <v>1765.624817505296</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273534</v>
+        <v>1530.472709273554</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.235352545332</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.3838523398</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.6235535748458</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.51640239181683</v>
+        <v>663.0026383785216</v>
       </c>
       <c r="C10" t="n">
-        <v>46.51640239181683</v>
+        <v>494.0664554506147</v>
       </c>
       <c r="D10" t="n">
-        <v>46.51640239181683</v>
+        <v>343.949816038279</v>
       </c>
       <c r="E10" t="n">
-        <v>46.51640239181683</v>
+        <v>196.0367224558858</v>
       </c>
       <c r="F10" t="n">
-        <v>46.51640239181683</v>
+        <v>196.0367224558858</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181683</v>
+        <v>196.0367224558858</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181683</v>
+        <v>46.51640239181722</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909538</v>
+        <v>65.89540801909625</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736016</v>
+        <v>227.5779039736033</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632613</v>
+        <v>490.002268063264</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794047</v>
+        <v>777.0810884794084</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620619</v>
+        <v>1062.768432620624</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257115</v>
+        <v>1310.63063925712</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325117</v>
+        <v>1499.198894325123</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718237</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718231</v>
+        <v>1546.318699718237</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020054</v>
+        <v>1348.158269020061</v>
       </c>
       <c r="T10" t="n">
-        <v>1328.52332217193</v>
+        <v>1348.158269020061</v>
       </c>
       <c r="U10" t="n">
-        <v>1039.400190676212</v>
+        <v>1059.035137524343</v>
       </c>
       <c r="V10" t="n">
-        <v>784.7157024703249</v>
+        <v>1059.035137524343</v>
       </c>
       <c r="W10" t="n">
-        <v>495.2985324333642</v>
+        <v>1059.035137524343</v>
       </c>
       <c r="X10" t="n">
-        <v>267.3089815353469</v>
+        <v>1059.035137524343</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.51640239181683</v>
+        <v>838.2425583808125</v>
       </c>
     </row>
     <row r="11">
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.525374274257</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5546,7 +5546,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
         <v>1344.266747951538</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1977.461080510508</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5777,13 +5777,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>1017.062828441876</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>796.270249298346</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1893.082977031346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.398488825459</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1348.981318788498</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1120.991767890481</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.1991887469509</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6254,22 +6254,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832222</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553154</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429798</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429798</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429798</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2046.679019810128</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U28" t="n">
-        <v>1757.603793154326</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V28" t="n">
-        <v>1502.919304948439</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W28" t="n">
-        <v>1213.502134911479</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X28" t="n">
-        <v>985.5125840134617</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134617</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6506,7 +6506,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400744</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121676</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578599</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578599</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578599</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854708</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648822</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611861</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138439</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.502065570314</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319314</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656808</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311317</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,16 +7804,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544042</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.78351343583176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,10 +8152,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>135.0065633140407</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775129</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>119.3474860695385</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>166.6519960569095</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>270.7237898362079</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>27.38164655864726</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619745</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>298.9802880858821</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>68.0091865463155</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.79952661609434</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229326</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.4693302300331</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>101.1181252153552</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>99.76050189075471</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>68.52575990662157</v>
+        <v>46.02952154336822</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>121.5862749664476</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>113.0473161837388</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1148304.538298479</v>
+        <v>1148304.53829848</v>
       </c>
     </row>
     <row r="3">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50775.64226829655</v>
+        <v>50775.64226829656</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982122</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="K2" t="n">
         <v>60535.99497675046</v>
@@ -26353,7 +26353,7 @@
         <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,49 +26363,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512981</v>
+        <v>331437.5228513029</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424113</v>
+        <v>563905.7843424068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.926151959655376e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911417</v>
+        <v>68999.154419114</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201199</v>
+        <v>99845.14336201323</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569558</v>
+        <v>147342.6769569546</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.595460685535467e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>156056.4565677628</v>
+        <v>156056.4565677614</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678123</v>
       </c>
-      <c r="I4" t="n">
-        <v>10557.08828678122</v>
-      </c>
       <c r="J4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678133</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987472</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.7954654358</v>
+        <v>88290.79546543618</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-860483.3955648873</v>
+        <v>-860843.4785806048</v>
       </c>
       <c r="C6" t="n">
         <v>-251802.336439307</v>
       </c>
       <c r="D6" t="n">
-        <v>-514206.6421446755</v>
+        <v>-514206.6421446792</v>
       </c>
       <c r="E6" t="n">
-        <v>-615049.4074763492</v>
+        <v>-615084.1454017803</v>
       </c>
       <c r="F6" t="n">
-        <v>-51143.62313393788</v>
+        <v>-51178.36105937346</v>
       </c>
       <c r="G6" t="n">
-        <v>-51143.62313393787</v>
+        <v>-51178.36105937362</v>
       </c>
       <c r="H6" t="n">
-        <v>-51143.62313393791</v>
+        <v>-51178.36105937368</v>
       </c>
       <c r="I6" t="n">
-        <v>-51143.6231339379</v>
+        <v>-51178.36105937359</v>
       </c>
       <c r="J6" t="n">
-        <v>-120142.7775530521</v>
+        <v>-120177.5154784875</v>
       </c>
       <c r="K6" t="n">
-        <v>-51143.62313393799</v>
+        <v>-51178.36105937359</v>
       </c>
       <c r="L6" t="n">
-        <v>-159979.0740259808</v>
+        <v>-159979.0740259821</v>
       </c>
       <c r="M6" t="n">
-        <v>-207476.6076209246</v>
+        <v>-207476.6076209234</v>
       </c>
       <c r="N6" t="n">
-        <v>-60133.93066396885</v>
+        <v>-60133.93066396882</v>
       </c>
       <c r="O6" t="n">
-        <v>-60133.93066396887</v>
+        <v>-60133.93066396877</v>
       </c>
       <c r="P6" t="n">
-        <v>-60133.93066396892</v>
+        <v>-60133.93066396883</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896799</v>
+        <v>885.8132865896838</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977103</v>
+        <v>581.4550298977152</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,37 +26917,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>-8.65768994956922e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203962</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.244325856919334e-14</v>
+        <v>-6.88133311016897e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202017</v>
+        <v>271.7582728202055</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519938</v>
+        <v>482.16221375199</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.7411498962043</v>
+        <v>317.7411498962091</v>
       </c>
       <c r="E4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019331</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962045</v>
+        <v>317.7411498962091</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.7411498962043</v>
+        <v>317.7411498962091</v>
       </c>
       <c r="M4" t="n">
-        <v>591.253258201938</v>
+        <v>591.2532582019331</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>112.5458025940679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>227.3394291069791</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>81.31783757486559</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>69.39629987765662</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>104.6827030038371</v>
+        <v>114.9082256601678</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>241.8266485873615</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>45.30663073103469</v>
       </c>
       <c r="X6" t="n">
-        <v>118.9893292130747</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>26.30185144792983</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,19 +27825,19 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>117.9324241363613</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>242.8063749580815</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.0051123819517</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814945</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177532</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>207.5073162493722</v>
       </c>
       <c r="U8" t="n">
-        <v>58.15454021860538</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>77.2688880973717</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906613</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>236.5033802905494</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.344459379669331</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413786</v>
+        <v>107.4132560413784</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169637</v>
+        <v>105.4699075169633</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>201.6818732831117</v>
+        <v>221.1204706627544</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,13 +29089,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.65768994956922e-14</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.286285363935999e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551474</v>
+        <v>3.56105843855149</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381529</v>
+        <v>36.46968973381546</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522559</v>
+        <v>137.2877054522565</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490085</v>
+        <v>302.2403836490098</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528925</v>
+        <v>452.9799873528945</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417123</v>
+        <v>561.9617295417147</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483021</v>
+        <v>625.2907025483048</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368365</v>
+        <v>635.4085598368392</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884902</v>
+        <v>599.9982849884929</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867505</v>
+        <v>512.0846547867528</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561258</v>
+        <v>384.5542494561275</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406592</v>
+        <v>223.6923371406602</v>
       </c>
       <c r="S8" t="n">
-        <v>81.1476191684918</v>
+        <v>81.14761916849216</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475909</v>
+        <v>15.58853331475916</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841179</v>
+        <v>0.2848846750841191</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079689</v>
+        <v>1.905334239079697</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953279</v>
+        <v>18.40151751953287</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234895</v>
+        <v>65.60032358234923</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474368</v>
+        <v>180.0123019474376</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657759</v>
+        <v>307.6696959657773</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247369</v>
+        <v>413.6998750247387</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913755</v>
+        <v>482.7682411913776</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139758</v>
+        <v>495.545680013978</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059469</v>
+        <v>453.3274845059489</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730329</v>
+        <v>363.8352723730345</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726986</v>
+        <v>243.2142442726996</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053162</v>
+        <v>118.2978574053167</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799332</v>
+        <v>35.39074781799348</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150147</v>
+        <v>7.67983406015018</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815585</v>
+        <v>0.1253509367815591</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719095</v>
+        <v>1.597368221719102</v>
       </c>
       <c r="H10" t="n">
-        <v>14.2020556440116</v>
+        <v>14.20205564401166</v>
       </c>
       <c r="I10" t="n">
-        <v>48.0372188858797</v>
+        <v>48.03721888587991</v>
       </c>
       <c r="J10" t="n">
-        <v>112.93393327554</v>
+        <v>112.9339332755405</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051821</v>
+        <v>185.5851443051829</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817644</v>
+        <v>237.4850899817654</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191122</v>
+        <v>250.3947295191134</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108867</v>
+        <v>244.4409025108878</v>
       </c>
       <c r="O10" t="n">
-        <v>225.78073737535</v>
+        <v>225.780737375351</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522803</v>
+        <v>193.1944256522811</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750417</v>
+        <v>133.7578062750422</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020583</v>
+        <v>71.82348386020614</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577731</v>
+        <v>27.83777164577743</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552704</v>
+        <v>6.825118765527069</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013254</v>
+        <v>0.08712917573013293</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,7 +32561,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34787,16 +34787,16 @@
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>217.4386117456598</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.2029511204527</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496654</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223222</v>
+        <v>121.1944791223235</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079119</v>
+        <v>232.8901363079139</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717251</v>
+        <v>326.1953145717275</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210294</v>
+        <v>394.9444693210321</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402456</v>
+        <v>405.9954962402483</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668035</v>
+        <v>369.9000735668061</v>
       </c>
       <c r="P8" t="n">
-        <v>280.851659031481</v>
+        <v>280.8516590314833</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816763</v>
+        <v>162.248559581678</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527124</v>
+        <v>8.106799326528119</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077009</v>
+        <v>179.2657106211797</v>
       </c>
       <c r="K9" t="n">
-        <v>169.8282569914169</v>
+        <v>289.1757430609568</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448627</v>
+        <v>275.1454952448645</v>
       </c>
       <c r="M9" t="n">
-        <v>507.2862033262667</v>
+        <v>340.6342072693593</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306425</v>
+        <v>364.2039679306447</v>
       </c>
       <c r="O9" t="n">
-        <v>581.4550298977103</v>
+        <v>310.7312400615044</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587027</v>
+        <v>229.8608649587043</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.232470186677</v>
+        <v>313.3097579225272</v>
       </c>
       <c r="R9" t="n">
-        <v>18.14002325267305</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886722</v>
+        <v>19.57475315886771</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792992</v>
+        <v>163.3156524793</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420805</v>
+        <v>265.0751152420816</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809529</v>
+        <v>289.9786064809539</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901153</v>
+        <v>288.5730748901164</v>
       </c>
       <c r="O10" t="n">
-        <v>250.3658652893896</v>
+        <v>250.3658652893906</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171738</v>
+        <v>190.4729849171746</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334729</v>
+        <v>47.59576302334786</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
